--- a/natmiOut/OldD4/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H2">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I2">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J2">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N2">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O2">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P2">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q2">
-        <v>32.52529932684921</v>
+        <v>57.15616948932534</v>
       </c>
       <c r="R2">
-        <v>32.52529932684921</v>
+        <v>514.405525403928</v>
       </c>
       <c r="S2">
-        <v>0.0003272433297236966</v>
+        <v>0.0004991082081861062</v>
       </c>
       <c r="T2">
-        <v>0.0003272433297236966</v>
+        <v>0.0005164524101237923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H3">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I3">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J3">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N3">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P3">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q3">
-        <v>13.8798310670297</v>
+        <v>25.12626257022501</v>
       </c>
       <c r="R3">
-        <v>13.8798310670297</v>
+        <v>226.136363132025</v>
       </c>
       <c r="S3">
-        <v>0.0001396476659210259</v>
+        <v>0.0002194115526265415</v>
       </c>
       <c r="T3">
-        <v>0.0001396476659210259</v>
+        <v>0.0002270361883544255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H4">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I4">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J4">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N4">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O4">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P4">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q4">
-        <v>18.95995655586027</v>
+        <v>32.60776663366</v>
       </c>
       <c r="R4">
-        <v>18.95995655586027</v>
+        <v>293.46989970294</v>
       </c>
       <c r="S4">
-        <v>0.0001907597913982791</v>
+        <v>0.0002847427342120307</v>
       </c>
       <c r="T4">
-        <v>0.0001907597913982791</v>
+        <v>0.0002946376535931618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H5">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I5">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J5">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N5">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O5">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P5">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q5">
-        <v>17.70711566711937</v>
+        <v>30.79736972305334</v>
       </c>
       <c r="R5">
-        <v>17.70711566711937</v>
+        <v>277.17632750748</v>
       </c>
       <c r="S5">
-        <v>0.000178154716809246</v>
+        <v>0.0002689336979132054</v>
       </c>
       <c r="T5">
-        <v>0.000178154716809246</v>
+        <v>0.000278279247210836</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H6">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I6">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J6">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N6">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O6">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P6">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q6">
-        <v>9.410328810301026</v>
+        <v>15.974117526289</v>
       </c>
       <c r="R6">
-        <v>9.410328810301026</v>
+        <v>95.84470515773401</v>
       </c>
       <c r="S6">
-        <v>9.467913892911296E-05</v>
+        <v>0.0001394917337381996</v>
       </c>
       <c r="T6">
-        <v>9.467913892911296E-05</v>
+        <v>9.62260833754606E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H7">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J7">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N7">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O7">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P7">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q7">
-        <v>28995.99632961334</v>
+        <v>31749.96220823695</v>
       </c>
       <c r="R7">
-        <v>28995.99632961334</v>
+        <v>285749.6598741325</v>
       </c>
       <c r="S7">
-        <v>0.2917343293971139</v>
+        <v>0.2772520777602024</v>
       </c>
       <c r="T7">
-        <v>0.2917343293971139</v>
+        <v>0.286886693952535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H8">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J8">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N8">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P8">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q8">
-        <v>12373.73795182943</v>
+        <v>13957.51139669838</v>
       </c>
       <c r="R8">
-        <v>12373.73795182943</v>
+        <v>125617.6025702854</v>
       </c>
       <c r="S8">
-        <v>0.1244945716807764</v>
+        <v>0.121882004448257</v>
       </c>
       <c r="T8">
-        <v>0.1244945716807764</v>
+        <v>0.1261174509166755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H9">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J9">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N9">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O9">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P9">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q9">
-        <v>16902.62171544508</v>
+        <v>18113.4489515969</v>
       </c>
       <c r="R9">
-        <v>16902.62171544508</v>
+        <v>163021.0405643721</v>
       </c>
       <c r="S9">
-        <v>0.1700605475029808</v>
+        <v>0.1581731444055305</v>
       </c>
       <c r="T9">
-        <v>0.1700605475029808</v>
+        <v>0.1636697219265825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H10">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J10">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N10">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O10">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P10">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q10">
-        <v>15785.72592775489</v>
+        <v>17107.78265157647</v>
       </c>
       <c r="R10">
-        <v>15785.72592775489</v>
+        <v>153970.0438641882</v>
       </c>
       <c r="S10">
-        <v>0.1588232428791184</v>
+        <v>0.1493913049379628</v>
       </c>
       <c r="T10">
-        <v>0.1588232428791184</v>
+        <v>0.1545827101644869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H11">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J11">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N11">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O11">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P11">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q11">
-        <v>8389.219016923829</v>
+        <v>8873.541251996137</v>
       </c>
       <c r="R11">
-        <v>8389.219016923829</v>
+        <v>53241.24751197682</v>
       </c>
       <c r="S11">
-        <v>0.08440555572730081</v>
+        <v>0.07748695047481159</v>
       </c>
       <c r="T11">
-        <v>0.08440555572730081</v>
+        <v>0.05345310117726006</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H12">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I12">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J12">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N12">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O12">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P12">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q12">
-        <v>1980.651954225062</v>
+        <v>4222.182685122244</v>
       </c>
       <c r="R12">
-        <v>1980.651954225062</v>
+        <v>37999.6441661002</v>
       </c>
       <c r="S12">
-        <v>0.01992772254025999</v>
+        <v>0.0368696162362549</v>
       </c>
       <c r="T12">
-        <v>0.01992772254025999</v>
+        <v>0.03815084956177085</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H13">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I13">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J13">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N13">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P13">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q13">
-        <v>845.2224912971838</v>
+        <v>1856.101829666042</v>
       </c>
       <c r="R13">
-        <v>845.2224912971838</v>
+        <v>16704.91646699437</v>
       </c>
       <c r="S13">
-        <v>0.008503947023821063</v>
+        <v>0.01620814807382408</v>
       </c>
       <c r="T13">
-        <v>0.008503947023821063</v>
+        <v>0.01677138744480133</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H14">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I14">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J14">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N14">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O14">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P14">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q14">
-        <v>1154.580458338391</v>
+        <v>2408.767923239833</v>
       </c>
       <c r="R14">
-        <v>1154.580458338391</v>
+        <v>21678.9113091585</v>
       </c>
       <c r="S14">
-        <v>0.01161645738671724</v>
+        <v>0.02103422697577616</v>
       </c>
       <c r="T14">
-        <v>0.01161645738671724</v>
+        <v>0.02176517444225211</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H15">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I15">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J15">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N15">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O15">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P15">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q15">
-        <v>1078.287793675062</v>
+        <v>2275.032115584111</v>
       </c>
       <c r="R15">
-        <v>1078.287793675062</v>
+        <v>20475.289040257</v>
       </c>
       <c r="S15">
-        <v>0.01084886212596243</v>
+        <v>0.01986639785206563</v>
       </c>
       <c r="T15">
-        <v>0.01084886212596243</v>
+        <v>0.02055676280793941</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H16">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I16">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J16">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N16">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O16">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P16">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q16">
-        <v>573.0488737620079</v>
+        <v>1180.023837010308</v>
       </c>
       <c r="R16">
-        <v>573.0488737620079</v>
+        <v>7080.14302206185</v>
       </c>
       <c r="S16">
-        <v>0.005765555595963205</v>
+        <v>0.01030439212720693</v>
       </c>
       <c r="T16">
-        <v>0.005765555595963205</v>
+        <v>0.007108315807637844</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H17">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I17">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J17">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N17">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O17">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P17">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q17">
-        <v>3888.161982458801</v>
+        <v>4377.381783021925</v>
       </c>
       <c r="R17">
-        <v>3888.161982458801</v>
+        <v>39396.43604719732</v>
       </c>
       <c r="S17">
-        <v>0.03911955001116863</v>
+        <v>0.03822487052213346</v>
       </c>
       <c r="T17">
-        <v>0.03911955001116863</v>
+        <v>0.03955319945462533</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H18">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I18">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J18">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N18">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P18">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q18">
-        <v>1659.232431205525</v>
+        <v>1924.32846765335</v>
       </c>
       <c r="R18">
-        <v>1659.232431205525</v>
+        <v>17318.95620888015</v>
       </c>
       <c r="S18">
-        <v>0.01669385852892132</v>
+        <v>0.01680392759055267</v>
       </c>
       <c r="T18">
-        <v>0.01669385852892132</v>
+        <v>0.01738787052857008</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H19">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I19">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J19">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N19">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O19">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P19">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q19">
-        <v>2266.524330145426</v>
+        <v>2497.30947546916</v>
       </c>
       <c r="R19">
-        <v>2266.524330145426</v>
+        <v>22475.78527922244</v>
       </c>
       <c r="S19">
-        <v>0.0228039398267518</v>
+        <v>0.02180740362281247</v>
       </c>
       <c r="T19">
-        <v>0.0228039398267518</v>
+        <v>0.02256521927474351</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H20">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I20">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J20">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N20">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O20">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P20">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q20">
-        <v>2116.756352156332</v>
+        <v>2358.657803614054</v>
       </c>
       <c r="R20">
-        <v>2116.756352156332</v>
+        <v>21227.92023252648</v>
       </c>
       <c r="S20">
-        <v>0.02129709522216799</v>
+        <v>0.02059664740664346</v>
       </c>
       <c r="T20">
-        <v>0.02129709522216799</v>
+        <v>0.02131238881502146</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H21">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I21">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J21">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N21">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O21">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P21">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q21">
-        <v>1124.936079910126</v>
+        <v>1223.399183048614</v>
       </c>
       <c r="R21">
-        <v>1124.936079910126</v>
+        <v>7340.395098291684</v>
       </c>
       <c r="S21">
-        <v>0.01131819955957261</v>
+        <v>0.0106831612335704</v>
       </c>
       <c r="T21">
-        <v>0.01131819955957261</v>
+        <v>0.007369603459832243</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.550935507225664</v>
+        <v>0.7434085</v>
       </c>
       <c r="H22">
-        <v>0.550935507225664</v>
+        <v>1.486817</v>
       </c>
       <c r="I22">
-        <v>0.001656080348621943</v>
+        <v>0.002004038405719556</v>
       </c>
       <c r="J22">
-        <v>0.001656080348621943</v>
+        <v>0.001336918682608127</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N22">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O22">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P22">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q22">
-        <v>57.88865992159985</v>
+        <v>81.13915024415067</v>
       </c>
       <c r="R22">
-        <v>57.88865992159985</v>
+        <v>486.834901464904</v>
       </c>
       <c r="S22">
-        <v>0.0005824290081275065</v>
+        <v>0.0007085362132195491</v>
       </c>
       <c r="T22">
-        <v>0.0005824290081275065</v>
+        <v>0.0004887720791811088</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.550935507225664</v>
+        <v>0.7434085</v>
       </c>
       <c r="H23">
-        <v>0.550935507225664</v>
+        <v>1.486817</v>
       </c>
       <c r="I23">
-        <v>0.001656080348621943</v>
+        <v>0.002004038405719556</v>
       </c>
       <c r="J23">
-        <v>0.001656080348621943</v>
+        <v>0.001336918682608127</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N23">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P23">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q23">
-        <v>24.70337973939174</v>
+        <v>35.6693531420125</v>
       </c>
       <c r="R23">
-        <v>24.70337973939174</v>
+        <v>214.016118852075</v>
       </c>
       <c r="S23">
-        <v>0.0002485454833208624</v>
+        <v>0.0003114776076306554</v>
       </c>
       <c r="T23">
-        <v>0.0002485454833208624</v>
+        <v>0.0002148677160878142</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.550935507225664</v>
+        <v>0.7434085</v>
       </c>
       <c r="H24">
-        <v>0.550935507225664</v>
+        <v>1.486817</v>
       </c>
       <c r="I24">
-        <v>0.001656080348621943</v>
+        <v>0.002004038405719556</v>
       </c>
       <c r="J24">
-        <v>0.001656080348621943</v>
+        <v>0.001336918682608127</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N24">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O24">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P24">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q24">
-        <v>33.74500772955149</v>
+        <v>46.29012930107</v>
       </c>
       <c r="R24">
-        <v>33.74500772955149</v>
+        <v>277.74077580642</v>
       </c>
       <c r="S24">
-        <v>0.0003395150519600168</v>
+        <v>0.0004042220410952339</v>
       </c>
       <c r="T24">
-        <v>0.0003395150519600168</v>
+        <v>0.0002788459415210281</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.550935507225664</v>
+        <v>0.7434085</v>
       </c>
       <c r="H25">
-        <v>0.550935507225664</v>
+        <v>1.486817</v>
       </c>
       <c r="I25">
-        <v>0.001656080348621943</v>
+        <v>0.002004038405719556</v>
       </c>
       <c r="J25">
-        <v>0.001656080348621943</v>
+        <v>0.001336918682608127</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N25">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O25">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P25">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q25">
-        <v>31.51519642434613</v>
+        <v>43.72008186360667</v>
       </c>
       <c r="R25">
-        <v>31.51519642434613</v>
+        <v>262.32049118164</v>
       </c>
       <c r="S25">
-        <v>0.0003170804889806504</v>
+        <v>0.0003817794634535467</v>
       </c>
       <c r="T25">
-        <v>0.0003170804889806504</v>
+        <v>0.0002633642976312021</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.550935507225664</v>
+        <v>0.7434085</v>
       </c>
       <c r="H26">
-        <v>0.550935507225664</v>
+        <v>1.486817</v>
       </c>
       <c r="I26">
-        <v>0.001656080348621943</v>
+        <v>0.002004038405719556</v>
       </c>
       <c r="J26">
-        <v>0.001656080348621943</v>
+        <v>0.001336918682608127</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N26">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O26">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P26">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q26">
-        <v>16.74854145924075</v>
+        <v>22.6769276801405</v>
       </c>
       <c r="R26">
-        <v>16.74854145924075</v>
+        <v>90.70771072056201</v>
       </c>
       <c r="S26">
-        <v>0.0001685103162329072</v>
+        <v>0.000198023080320571</v>
       </c>
       <c r="T26">
-        <v>0.0001685103162329072</v>
+        <v>9.10686481869743E-05</v>
       </c>
     </row>
   </sheetData>
